--- a/Metadata_Experiment_Objects.xlsx
+++ b/Metadata_Experiment_Objects.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dafa\Documents\git\nanotech-premise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dafa\Documents\git\metadata-spectroscopy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045"/>
   </bookViews>
   <sheets>
-    <sheet name="Experiment" sheetId="11" r:id="rId1"/>
+    <sheet name="Relations" sheetId="11" r:id="rId1"/>
     <sheet name="Supplier" sheetId="45" r:id="rId2"/>
     <sheet name="Room" sheetId="47" r:id="rId3"/>
     <sheet name="Manufacturer" sheetId="46" r:id="rId4"/>
@@ -1260,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/Metadata_Experiment_Objects.xlsx
+++ b/Metadata_Experiment_Objects.xlsx
@@ -9,34 +9,32 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Relations" sheetId="11" r:id="rId1"/>
     <sheet name="Supplier" sheetId="45" r:id="rId2"/>
     <sheet name="Room" sheetId="47" r:id="rId3"/>
     <sheet name="Manufacturer" sheetId="46" r:id="rId4"/>
-    <sheet name="Crystal" sheetId="2" r:id="rId5"/>
-    <sheet name="CrystalMaterial" sheetId="1" r:id="rId6"/>
-    <sheet name="Molecule" sheetId="3" r:id="rId7"/>
-    <sheet name="MoleculePrecursor" sheetId="4" r:id="rId8"/>
-    <sheet name="Person" sheetId="5" r:id="rId9"/>
-    <sheet name="Author" sheetId="6" r:id="rId10"/>
-    <sheet name="Institution" sheetId="7" r:id="rId11"/>
-    <sheet name="Grant" sheetId="8" r:id="rId12"/>
-    <sheet name="Instrument" sheetId="9" r:id="rId13"/>
-    <sheet name="UHVComponent" sheetId="10" r:id="rId14"/>
-    <sheet name="Maintenance" sheetId="12" r:id="rId15"/>
-    <sheet name="FillCryostat" sheetId="13" r:id="rId16"/>
-    <sheet name="Chemist" sheetId="14" r:id="rId17"/>
-    <sheet name="Publication" sheetId="15" r:id="rId18"/>
-    <sheet name="Sputtering" sheetId="16" r:id="rId19"/>
-    <sheet name="Annealing" sheetId="17" r:id="rId20"/>
-    <sheet name="Deposition" sheetId="18" r:id="rId21"/>
-    <sheet name="STM" sheetId="21" r:id="rId22"/>
-    <sheet name="Result" sheetId="20" r:id="rId23"/>
-    <sheet name="Draft" sheetId="19" r:id="rId24"/>
-    <sheet name="AFM" sheetId="25" r:id="rId25"/>
+    <sheet name="Crystal" sheetId="1" r:id="rId5"/>
+    <sheet name="Molecule" sheetId="4" r:id="rId6"/>
+    <sheet name="Person" sheetId="5" r:id="rId7"/>
+    <sheet name="Author" sheetId="6" r:id="rId8"/>
+    <sheet name="Institution" sheetId="7" r:id="rId9"/>
+    <sheet name="Grant" sheetId="8" r:id="rId10"/>
+    <sheet name="Instrument" sheetId="9" r:id="rId11"/>
+    <sheet name="UHVComponent" sheetId="10" r:id="rId12"/>
+    <sheet name="Maintenance" sheetId="12" r:id="rId13"/>
+    <sheet name="FillCryostat" sheetId="13" r:id="rId14"/>
+    <sheet name="Chemist" sheetId="14" r:id="rId15"/>
+    <sheet name="Publication" sheetId="15" r:id="rId16"/>
+    <sheet name="Sputtering" sheetId="16" r:id="rId17"/>
+    <sheet name="Annealing" sheetId="17" r:id="rId18"/>
+    <sheet name="Deposition" sheetId="18" r:id="rId19"/>
+    <sheet name="STM" sheetId="21" r:id="rId20"/>
+    <sheet name="Result" sheetId="20" r:id="rId21"/>
+    <sheet name="Draft" sheetId="19" r:id="rId22"/>
+    <sheet name="AFM" sheetId="25" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="287">
   <si>
     <t>MOL1</t>
   </si>
@@ -74,9 +72,6 @@
     <t>Molecule 531a</t>
   </si>
   <si>
-    <t>MOLPREC1</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -104,13 +99,7 @@
     <t>Au111_Gino</t>
   </si>
   <si>
-    <t>CRYSTMAT1</t>
-  </si>
-  <si>
     <t>Au</t>
-  </si>
-  <si>
-    <t>Au111</t>
   </si>
   <si>
     <t>PERS1</t>
@@ -1258,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1273,35 +1262,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,7 +1299,7 @@
         <v>AUTH1</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C4" t="str">
         <f>Person!A2</f>
@@ -1319,7 +1308,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C5" t="str">
         <f>Institution!A2</f>
@@ -1332,7 +1321,7 @@
         <v>AUTH2</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" t="str">
         <f>Person!A3</f>
@@ -1341,7 +1330,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C7" t="str">
         <f>Institution!A2</f>
@@ -1350,7 +1339,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C8" t="str">
         <f>Institution!A3</f>
@@ -1363,7 +1352,7 @@
         <v>AUTH3</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C9" t="str">
         <f>Person!A4</f>
@@ -1372,7 +1361,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" t="str">
         <f>Institution!A2</f>
@@ -1380,12 +1369,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>MoleculePrecursor!A2</f>
-        <v>MOLPREC1</v>
+      <c r="A11" t="s">
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" t="str">
         <f>Supplier!A3</f>
@@ -1393,379 +1381,359 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>Maintenance!A2</f>
+        <v>MAINT1</v>
+      </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C12" t="str">
-        <f>Molecule!A2</f>
-        <v>MOL1</v>
+        <f>UHVComponent!A2</f>
+        <v>UHVCOMP1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>Maintenance!A2</f>
-        <v>MAINT1</v>
+        <f>Maintenance!A3</f>
+        <v>MAINT2</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C13" t="str">
+        <f>UHVComponent!A3</f>
+        <v>UHVCOMP2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>Instrument!A2</f>
+        <v>INSTR1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="str">
         <f>UHVComponent!A2</f>
         <v>UHVCOMP1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>Maintenance!A3</f>
-        <v>MAINT2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" t="str">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="str">
         <f>UHVComponent!A3</f>
         <v>UHVCOMP2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="str">
+        <f>Room!A2</f>
+        <v>ROOM1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>Crystal!A2</f>
+        <v>CRYST1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="str">
+        <f>Supplier!A2</f>
+        <v>SUPPL1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>Sputtering!A2</f>
+        <v>SPUT1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="str">
+        <f>Crystal!A2</f>
+        <v>CRYST1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="str">
         <f>Instrument!A2</f>
         <v>INSTR1</v>
       </c>
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" t="str">
-        <f>UHVComponent!A2</f>
-        <v>UHVCOMP1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" t="str">
-        <f>UHVComponent!A3</f>
-        <v>UHVCOMP2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" t="str">
-        <f>Room!A2</f>
-        <v>ROOM1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>CrystalMaterial!A2</f>
-        <v>CRYSTMAT1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" t="str">
-        <f>Supplier!A2</f>
-        <v>SUPPL1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" t="str">
-        <f>Crystal!A2</f>
-        <v>CRYST1</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
+        <f>Annealing!A2</f>
+        <v>ANNEAL1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="str">
         <f>Sputtering!A2</f>
         <v>SPUT1</v>
       </c>
-      <c r="B21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" t="str">
-        <f>CrystalMaterial!A2</f>
-        <v>CRYSTMAT1</v>
-      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>Deposition!A2</f>
+        <v>DEPOS1</v>
+      </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C22" t="str">
-        <f>Instrument!A2</f>
-        <v>INSTR1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
         <f>Annealing!A2</f>
         <v>ANNEAL1</v>
       </c>
+      <c r="F22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" t="str">
-        <f>Sputtering!A2</f>
-        <v>SPUT1</v>
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
+        <f>Annealing!A3</f>
+        <v>ANNEAL2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" t="str">
         <f>Deposition!A2</f>
         <v>DEPOS1</v>
       </c>
-      <c r="B24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" t="str">
-        <f>Annealing!A2</f>
-        <v>ANNEAL1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>STM!A2</f>
+        <v>STM1</v>
+      </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C25" t="str">
-        <f>MoleculePrecursor!A2</f>
-        <v>MOLPREC1</v>
+        <f>Annealing!A3</f>
+        <v>ANNEAL2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>Annealing!A3</f>
-        <v>ANNEAL2</v>
+        <f>Sputtering!A3</f>
+        <v>SPUT2</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" t="str">
-        <f>Deposition!A2</f>
-        <v>DEPOS1</v>
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
+        <f>Annealing!A4</f>
+        <v>ANNEAL3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="str">
+        <f>Sputtering!A3</f>
+        <v>SPUT2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>Sputtering!A4</f>
+        <v>SPUT3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="str">
+        <f>Annealing!A4</f>
+        <v>ANNEAL3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>Annealing!A5</f>
+        <v>ANNEAL4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="str">
+        <f>Sputtering!A4</f>
+        <v>SPUT3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>Deposition!A3</f>
+        <v>DEPOS2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="str">
+        <f>Annealing!A5</f>
+        <v>ANNEAL4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>Annealing!A6</f>
+        <v>ANNEAL5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="str">
+        <f>Deposition!A3</f>
+        <v>DEPOS2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>AFM!A2</f>
+        <v>AFM1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="str">
+        <f>Annealing!A6</f>
+        <v>ANNEAL5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>Result!A2</f>
+        <v>RES1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="str">
         <f>STM!A2</f>
         <v>STM1</v>
       </c>
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" t="str">
-        <f>Annealing!A3</f>
-        <v>ANNEAL2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>Sputtering!A3</f>
-        <v>SPUT2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>Annealing!A4</f>
-        <v>ANNEAL3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" t="str">
-        <f>Sputtering!A3</f>
-        <v>SPUT2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>Sputtering!A4</f>
-        <v>SPUT3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" t="str">
-        <f>Annealing!A4</f>
-        <v>ANNEAL3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>Annealing!A5</f>
-        <v>ANNEAL4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" t="str">
-        <f>Sputtering!A4</f>
-        <v>SPUT3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>Deposition!A3</f>
-        <v>DEPOS2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" t="str">
-        <f>Annealing!A5</f>
-        <v>ANNEAL4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" t="str">
-        <f>MoleculePrecursor!A2</f>
-        <v>MOLPREC1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>Annealing!A6</f>
-        <v>ANNEAL5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" t="str">
-        <f>Deposition!A3</f>
-        <v>DEPOS2</v>
-      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
+        <f>Result!A3</f>
+        <v>RES2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="str">
         <f>AFM!A2</f>
         <v>AFM1</v>
       </c>
-      <c r="B35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" t="str">
-        <f>Annealing!A6</f>
-        <v>ANNEAL5</v>
-      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
+        <f>Draft!A2</f>
+        <v>DRF1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" t="str">
         <f>Result!A2</f>
         <v>RES1</v>
       </c>
-      <c r="B36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" t="str">
-        <f>STM!A2</f>
-        <v>STM1</v>
-      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="str">
         <f>Result!A3</f>
         <v>RES2</v>
       </c>
-      <c r="B37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" t="str">
-        <f>AFM!A2</f>
-        <v>AFM1</v>
-      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
+        <f>Publication!A2</f>
+        <v>PUBL1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="str">
         <f>Draft!A2</f>
         <v>DRF1</v>
       </c>
-      <c r="B38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" t="str">
-        <f>Result!A2</f>
-        <v>RES1</v>
-      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C39" t="str">
-        <f>Result!A3</f>
-        <v>RES2</v>
+        <f>Author!A2</f>
+        <v>AUTH1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f>Publication!A2</f>
-        <v>PUBL1</v>
-      </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C40" t="str">
-        <f>Draft!A2</f>
-        <v>DRF1</v>
+        <f>Author!A3</f>
+        <v>AUTH2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C41" t="str">
-        <f>Author!A2</f>
-        <v>AUTH1</v>
+        <f>Author!A4</f>
+        <v>AUTH3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C42" t="str">
-        <f>Author!A3</f>
-        <v>AUTH2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" t="str">
-        <f>Author!A4</f>
-        <v>AUTH3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" t="str">
         <f>Grant!A3</f>
         <v>GRANT2</v>
       </c>
@@ -1777,112 +1745,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -1899,45 +1761,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>167</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>168</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>169</v>
       </c>
-      <c r="G1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" t="s">
-        <v>172</v>
-      </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1">
         <v>44930</v>
@@ -1949,18 +1811,18 @@
         <v>1000000</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
       </c>
       <c r="D3" s="1">
         <v>44930</v>
@@ -1972,7 +1834,7 @@
         <v>1000000</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1980,7 +1842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1999,42 +1861,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>76698965</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1">
         <v>44538</v>
@@ -2045,7 +1907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2065,42 +1927,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
       </c>
       <c r="E2">
         <v>796857466</v>
@@ -2114,16 +1976,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>796857466</v>
@@ -2140,7 +2002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2156,35 +2018,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +2054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2212,33 +2074,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>56.7</v>
@@ -2247,7 +2109,7 @@
         <v>55.7</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -2258,7 +2120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2274,24 +2136,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +2161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2320,51 +2182,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" t="s">
         <v>181</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>182</v>
       </c>
-      <c r="E1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" t="s">
-        <v>185</v>
-      </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
       </c>
       <c r="E2">
         <v>2022</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +2234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -2390,42 +2252,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" t="s">
         <v>186</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>187</v>
       </c>
-      <c r="E1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>188</v>
       </c>
-      <c r="G1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" t="s">
-        <v>191</v>
-      </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>600</v>
@@ -2438,6 +2300,129 @@
       </c>
       <c r="I2" s="2">
         <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="D3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.06</v>
+      </c>
+      <c r="F3">
+        <v>704</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.3E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.06</v>
+      </c>
+      <c r="F4">
+        <v>720</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2">
+        <v>900</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.3500000000000001E-3</v>
+      </c>
+      <c r="F2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G2">
+        <f>420+273.15</f>
+        <v>693.15</v>
+      </c>
+      <c r="I2">
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2445,45 +2430,156 @@
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C3">
-        <v>1200</v>
-      </c>
-      <c r="D3">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="E3">
-        <v>1.06</v>
-      </c>
-      <c r="F3">
-        <v>704</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>3600</v>
+      </c>
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="169.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>3600*3</f>
+        <v>10800</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.9999999999999995E-8</v>
+      </c>
+      <c r="F2">
+        <v>528</v>
+      </c>
+      <c r="G2">
+        <v>298</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
         <v>110</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>36000</v>
+      </c>
+      <c r="E3">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="F3">
+        <v>528</v>
+      </c>
+      <c r="G3">
+        <v>293</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
         <v>111</v>
-      </c>
-      <c r="C4">
-        <v>600</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2.3E-3</v>
-      </c>
-      <c r="E4">
-        <v>1.06</v>
-      </c>
-      <c r="F4">
-        <v>720</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2507,35 +2603,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
         <v>131</v>
-      </c>
-      <c r="C1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2544,240 +2640,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>900</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2.3500000000000001E-3</v>
-      </c>
-      <c r="F2">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="G2">
-        <f>420+273.15</f>
-        <v>693.15</v>
-      </c>
-      <c r="I2">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5">
-        <v>3600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="169.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>3600*3</f>
-        <v>10800</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5.9999999999999995E-8</v>
-      </c>
-      <c r="F2">
-        <v>528</v>
-      </c>
-      <c r="G2">
-        <v>298</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>36000</v>
-      </c>
-      <c r="E3">
-        <v>4.0000000000000001E-8</v>
-      </c>
-      <c r="F3">
-        <v>528</v>
-      </c>
-      <c r="G3">
-        <v>293</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ2"/>
   <sheetViews>
@@ -2844,198 +2706,198 @@
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
         <v>197</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>198</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>199</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>200</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>201</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>202</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>203</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>204</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>205</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>206</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>207</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>208</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>209</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>211</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>212</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>213</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>214</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>215</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>216</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>217</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>218</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>219</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>220</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>221</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>222</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>223</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>224</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>225</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>226</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>227</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>228</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>229</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>230</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>231</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>232</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>233</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>234</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>235</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>236</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>237</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>238</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>239</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>240</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>241</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>242</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>243</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>244</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF1" t="s">
         <v>245</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BG1" t="s">
         <v>246</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BH1" t="s">
         <v>247</v>
       </c>
-      <c r="BB1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>248</v>
       </c>
-      <c r="BG1" t="s">
-        <v>249</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>250</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>251</v>
-      </c>
       <c r="BJ1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="7">
         <v>44784.337812500002</v>
@@ -3071,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="BJ2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3080,7 +2942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3096,32 +2958,32 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3129,7 +2991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3144,27 +3006,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3172,7 +3034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ2"/>
   <sheetViews>
@@ -3264,276 +3126,276 @@
   <sheetData>
     <row r="1" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
         <v>197</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>198</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>199</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>200</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>201</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>202</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>203</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>204</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>205</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>206</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>207</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>208</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>209</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>211</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>212</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>213</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>214</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>215</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>216</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>217</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>218</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>219</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>220</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>221</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>222</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>223</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>224</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>225</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>226</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>227</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>228</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>229</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>230</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>231</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>232</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>233</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>234</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>235</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>236</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>237</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>238</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>239</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>240</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>241</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>242</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>243</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>244</v>
       </c>
-      <c r="AY1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>247</v>
-      </c>
       <c r="BB1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BE1" t="s">
         <v>252</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>253</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>254</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>255</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>256</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>257</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>258</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>259</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>260</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>261</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>262</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>263</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>264</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>265</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>266</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>267</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>268</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
         <v>269</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
         <v>270</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BX1" t="s">
         <v>271</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BY1" t="s">
         <v>272</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BZ1" t="s">
         <v>273</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CA1" t="s">
         <v>274</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CB1" t="s">
         <v>275</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CC1" t="s">
         <v>276</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CD1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CE1" t="s">
         <v>277</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CF1" t="s">
         <v>278</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CG1" t="s">
         <v>279</v>
       </c>
-      <c r="CD1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CE1" t="s">
+      <c r="CH1" t="s">
         <v>280</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CI1" t="s">
         <v>281</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CJ1" t="s">
         <v>282</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>283</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>284</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" s="7">
         <v>44246.521504629629</v>
@@ -3545,7 +3407,7 @@
         <v>1E-10</v>
       </c>
       <c r="CD2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3568,21 +3430,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3606,24 +3468,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3633,53 +3495,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3701,86 +3520,92 @@
     <col min="23" max="23" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
         <v>138</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>140</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>141</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>142</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>144</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>145</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>146</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>147</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>148</v>
       </c>
-      <c r="N1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D2">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F2" t="b">
+      <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
+      <c r="J2" t="b">
         <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -3788,13 +3613,19 @@
       <c r="L2" t="b">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1">
         <v>42404</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>19031510</v>
       </c>
     </row>
@@ -3803,74 +3634,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="90.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3890,106 +3659,130 @@
     <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" t="s">
         <v>156</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" t="s">
+      <c r="T1" t="s">
         <v>158</v>
       </c>
-      <c r="F1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>147</v>
       </c>
-      <c r="N1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" t="s">
-        <v>160</v>
-      </c>
-      <c r="P1" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>150</v>
-      </c>
-      <c r="R1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
         <v>531</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
-      <c r="K2" t="b">
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="b">
+      <c r="O2" t="b">
         <v>0</v>
       </c>
-      <c r="M2" t="b">
+      <c r="P2" t="b">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3998,7 +3791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -4018,85 +3811,85 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
       <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4107,4 +3900,110 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>